--- a/data/trans_dic/APOYO_SOCIAL_DUKE_AFEC_CAT-Edad-trans_dic.xlsx
+++ b/data/trans_dic/APOYO_SOCIAL_DUKE_AFEC_CAT-Edad-trans_dic.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Apoyo afectivo bajo</t>
+          <t>Apoyo afectivo bajo (tasa de respuesta: 98,35%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1559,7 +1559,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Apoyo afectivo bajo</t>
+          <t>Apoyo afectivo bajo (tasa de respuesta: 98,35%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/APOYO_SOCIAL_DUKE_AFEC_CAT-Edad-trans_dic.xlsx
+++ b/data/trans_dic/APOYO_SOCIAL_DUKE_AFEC_CAT-Edad-trans_dic.xlsx
@@ -633,7 +633,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>59,96%</t>
+          <t>60,53%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>71,01%</t>
+          <t>75,46%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>65,27%</t>
+          <t>68,11%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -686,12 +686,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>51,7; 68,0</t>
+          <t>51,75; 69,39</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>26,19; 47,53</t>
+          <t>26,13; 47,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -701,12 +701,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>62,37; 78,66</t>
+          <t>64,22; 82,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>39,74; 59,75</t>
+          <t>40,83; 60,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -716,12 +716,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>59,08; 71,02</t>
+          <t>61,55; 74,24</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>35,21; 50,49</t>
+          <t>35,26; 50,82</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>65,11%</t>
+          <t>60,95%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>69,28%</t>
+          <t>70,52%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>67,31%</t>
+          <t>65,73%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -796,12 +796,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>56,76; 71,9</t>
+          <t>51,88; 70,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>44,67; 62,31</t>
+          <t>45,17; 61,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>62,19; 75,91</t>
+          <t>62,04; 76,95</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>20,1; 51,77</t>
+          <t>19,73; 52,28</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>61,64; 72,48</t>
+          <t>59,05; 71,02</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>29,71; 53,27</t>
+          <t>29,63; 53,33</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>72,75%</t>
+          <t>75,83%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>76,5%</t>
+          <t>76,95%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>74,7%</t>
+          <t>76,38%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -906,12 +906,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>66,41; 78,52</t>
+          <t>69,72; 81,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>52,82; 64,39</t>
+          <t>51,86; 64,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>70,55; 81,26</t>
+          <t>71,26; 81,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>51,76; 60,79</t>
+          <t>51,63; 60,43</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>70,43; 78,47</t>
+          <t>72,09; 80,02</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>53,88; 61,4</t>
+          <t>53,56; 60,72</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>75,0%</t>
+          <t>73,39%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -978,7 +978,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>79,53%</t>
+          <t>80,1%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>77,29%</t>
+          <t>76,74%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1016,12 +1016,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>70,23; 79,6</t>
+          <t>67,96; 78,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,92; 60,1</t>
+          <t>12,53; 60,05</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1031,12 +1031,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>75,16; 83,35</t>
+          <t>74,84; 84,04</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>55,49; 63,32</t>
+          <t>55,52; 63,27</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1046,12 +1046,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>74,28; 80,47</t>
+          <t>73,16; 79,94</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>20,15; 60,18</t>
+          <t>21,06; 60,14</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>74,65%</t>
+          <t>74,6%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>78,01%</t>
+          <t>77,66%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>76,48%</t>
+          <t>76,19%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1126,12 +1126,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>70,12; 79,05</t>
+          <t>69,16; 79,39</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>56,47; 66,56</t>
+          <t>56,55; 66,83</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1141,12 +1141,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>73,58; 81,62</t>
+          <t>73,11; 81,93</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>58,49; 67,04</t>
+          <t>58,25; 67,27</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1156,12 +1156,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>73,2; 79,38</t>
+          <t>72,85; 79,44</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>58,99; 65,58</t>
+          <t>58,97; 65,56</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>62,65%</t>
+          <t>62,62%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>69,26%</t>
+          <t>68,82%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>66,16%</t>
+          <t>65,95%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1236,12 +1236,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>56,64; 67,44</t>
+          <t>56,28; 67,7</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>58,72; 68,92</t>
+          <t>58,88; 69,23</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1251,12 +1251,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>64,43; 74,04</t>
+          <t>63,19; 73,82</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>60,49; 93,12</t>
+          <t>60,58; 93,3</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1266,12 +1266,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>62,45; 69,66</t>
+          <t>61,89; 69,82</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>61,42; 88,74</t>
+          <t>61,58; 90,43</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>68,38%</t>
+          <t>69,23%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>66,86%</t>
+          <t>66,8%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>67,45%</t>
+          <t>67,73%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1346,12 +1346,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>62,27; 73,85</t>
+          <t>63,31; 74,47</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>66,59; 78,16</t>
+          <t>66,71; 78,42</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1361,12 +1361,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>61,77; 71,51</t>
+          <t>61,55; 71,55</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>64,61; 73,02</t>
+          <t>64,42; 73,4</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1376,12 +1376,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>63,42; 70,68</t>
+          <t>63,79; 71,47</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>66,98; 74,29</t>
+          <t>66,41; 73,87</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>69,66%</t>
+          <t>69,47%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1418,7 +1418,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>73,37%</t>
+          <t>74,11%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>71,66%</t>
+          <t>71,9%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1456,12 +1456,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>67,34; 71,76</t>
+          <t>67,01; 71,97</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>34,61; 58,57</t>
+          <t>34,17; 58,23</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1471,12 +1471,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>71,29; 75,25</t>
+          <t>72,05; 76,24</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>54,47; 70,55</t>
+          <t>55,23; 72,38</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1486,12 +1486,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>70,26; 73,16</t>
+          <t>70,39; 73,63</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>46,26; 61,93</t>
+          <t>46,32; 62,11</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1713,7 +1713,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>15291</t>
+          <t>41924</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -1728,7 +1728,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>16754</t>
+          <t>53897</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -1743,7 +1743,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>32045</t>
+          <t>95820</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -1766,12 +1766,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>13185; 17341</t>
+          <t>35846; 48067</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>61435; 111495</t>
+          <t>61285; 112544</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -1781,12 +1781,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>14715; 18559</t>
+          <t>45870; 59037</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>73257; 110156</t>
+          <t>75270; 111223</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -1796,12 +1796,12 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>29007; 34866</t>
+          <t>86603; 104449</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>147521; 211516</t>
+          <t>147699; 212907</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -1876,7 +1876,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>18798</t>
+          <t>55575</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -1891,7 +1891,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>22318</t>
+          <t>64280</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1906,7 +1906,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>41115</t>
+          <t>119855</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1929,12 +1929,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16385; 20758</t>
+          <t>47309; 63871</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>102459; 142910</t>
+          <t>103602; 142126</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1944,12 +1944,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>20036; 24455</t>
+          <t>56557; 70141</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>62990; 162220</t>
+          <t>61806; 163794</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1959,12 +1959,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>37649; 44275</t>
+          <t>107678; 129490</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>161250; 289094</t>
+          <t>160818; 289431</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -2039,7 +2039,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>34231</t>
+          <t>97545</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -2054,7 +2054,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>39254</t>
+          <t>97024</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -2069,7 +2069,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>73485</t>
+          <t>194569</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -2092,12 +2092,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>31250; 36947</t>
+          <t>89680; 104509</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>162135; 197618</t>
+          <t>159178; 198156</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -2107,12 +2107,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>36202; 41698</t>
+          <t>89851; 102829</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>166606; 195676</t>
+          <t>166206; 194534</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -2122,12 +2122,12 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>69280; 77193</t>
+          <t>183644; 203841</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>338833; 386115</t>
+          <t>336807; 381853</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -2202,7 +2202,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>53997</t>
+          <t>111132</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -2217,7 +2217,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>58515</t>
+          <t>120820</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -2232,7 +2232,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>112512</t>
+          <t>231952</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -2255,12 +2255,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>50567; 57309</t>
+          <t>102912; 118651</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>86869; 375116</t>
+          <t>78199; 374831</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -2270,12 +2270,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>55300; 61325</t>
+          <t>112898; 126764</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>222244; 253610</t>
+          <t>222372; 253408</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -2285,12 +2285,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>108126; 117148</t>
+          <t>221153; 241635</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>206454; 616704</t>
+          <t>215850; 616232</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>50611</t>
+          <t>96877</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -2380,7 +2380,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>63559</t>
+          <t>109200</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -2395,7 +2395,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>114170</t>
+          <t>206076</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2418,12 +2418,12 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>47541; 53594</t>
+          <t>89812; 103088</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>189563; 223419</t>
+          <t>189840; 224335</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -2433,12 +2433,12 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>59956; 66502</t>
+          <t>102791; 115194</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>185642; 212780</t>
+          <t>184867; 213504</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -2448,12 +2448,12 @@
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>109267; 118496</t>
+          <t>197025; 214865</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>385267; 428320</t>
+          <t>385134; 428188</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -2528,7 +2528,7 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>37958</t>
+          <t>60219</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -2543,7 +2543,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>47582</t>
+          <t>76918</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -2558,7 +2558,7 @@
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>85540</t>
+          <t>137138</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2581,12 +2581,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>34314; 40861</t>
+          <t>54128; 65112</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>121809; 142978</t>
+          <t>122139; 143615</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -2596,12 +2596,12 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>44260; 50861</t>
+          <t>70622; 82503</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>273136; 420449</t>
+          <t>273507; 421262</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -2611,12 +2611,12 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>80735; 90055</t>
+          <t>128684; 145177</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>404712; 584748</t>
+          <t>405812; 595871</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -2691,7 +2691,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>34541</t>
+          <t>55246</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -2706,7 +2706,7 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>53734</t>
+          <t>85454</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2721,7 +2721,7 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>88275</t>
+          <t>140701</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2744,12 +2744,12 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>31453; 37303</t>
+          <t>50525; 59429</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>99673; 117002</t>
+          <t>99860; 117384</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
@@ -2759,12 +2759,12 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>49645; 57470</t>
+          <t>78745; 91532</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>147624; 166828</t>
+          <t>147188; 167690</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
@@ -2774,12 +2774,12 @@
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>83002; 92513</t>
+          <t>132524; 148469</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>253291; 280947</t>
+          <t>251125; 279347</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
@@ -2854,7 +2854,7 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>245426</t>
+          <t>518519</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
@@ -2869,7 +2869,7 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>301716</t>
+          <t>607594</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -2884,7 +2884,7 @@
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>547142</t>
+          <t>1126112</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -2907,12 +2907,12 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>237245; 252830</t>
+          <t>500129; 537177</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>722510; 1222912</t>
+          <t>713422; 1215756</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
@@ -2922,12 +2922,12 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>293188; 309455</t>
+          <t>590662; 625020</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>1207904; 1564371</t>
+          <t>1224636; 1605038</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
@@ -2937,12 +2937,12 @@
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>536508; 558643</t>
+          <t>1102369; 1153235</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>1991615; 2666090</t>
+          <t>1994425; 2673876</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">

--- a/data/trans_dic/APOYO_SOCIAL_DUKE_AFEC_CAT-Edad-trans_dic.xlsx
+++ b/data/trans_dic/APOYO_SOCIAL_DUKE_AFEC_CAT-Edad-trans_dic.xlsx
@@ -563,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -633,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>38,39%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>43,68%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>60,53%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>36,59%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>43,68%</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>52,58%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>45,2%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>75,46%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>50,08%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>45,2%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>45,18%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>44,45%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>68,11%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>42,53%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>44,45%</t>
         </is>
       </c>
     </row>
@@ -686,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>28,63; 48,6</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>37,14; 50,3</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>51,75; 69,39</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>26,13; 47,98</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>37,14; 50,3</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>44,27; 62,38</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>38,75; 51,94</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>64,22; 82,66</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>40,83; 60,33</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>38,75; 51,94</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>38,48; 52,87</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>39,75; 48,62</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>61,55; 74,24</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>35,26; 50,82</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>39,75; 48,62</t>
         </is>
       </c>
     </row>
@@ -743,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>55,8%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>48,88%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>60,95%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>53,87%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>48,88%</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>51,45%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>48,37%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>70,52%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>38,54%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>48,37%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>53,55%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>48,6%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>65,73%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>45,02%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>48,6%</t>
         </is>
       </c>
     </row>
@@ -796,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>47,64; 63,75</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>42,55; 55,04</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>51,88; 70,05</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>45,17; 61,96</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>42,55; 55,04</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>45,01; 57,56</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>42,38; 54,83</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>62,04; 76,95</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>19,73; 52,28</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>42,38; 54,83</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>48,41; 58,64</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>43,8; 52,66</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>59,05; 71,02</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>29,63; 53,33</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>43,8; 52,66</t>
         </is>
       </c>
     </row>
@@ -853,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>60,33%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>51,21%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>75,83%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>58,42%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>51,21%</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>56,67%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>49,37%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>76,95%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>56,3%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>49,37%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>58,47%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>50,3%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>76,38%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>57,34%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>50,3%</t>
         </is>
       </c>
     </row>
@@ -906,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>54,16; 65,99</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>45,89; 56,82</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>69,72; 81,24</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>51,86; 64,56</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>45,89; 56,82</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>52,12; 61,11</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>43,8; 54,67</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>71,26; 81,55</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>51,63; 60,43</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>43,8; 54,67</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>54,98; 61,82</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>46,33; 53,57</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>72,09; 80,02</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>53,56; 60,72</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>46,33; 53,57</t>
         </is>
       </c>
     </row>
@@ -963,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>59,92%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>50,67%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>73,39%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>35,82%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>50,67%</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>59,3%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>48,43%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>80,1%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>59,41%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>48,43%</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>59,61%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>49,59%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>76,74%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>45,04%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>49,59%</t>
         </is>
       </c>
     </row>
@@ -1016,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>54,89; 64,82</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>46,17; 55,81</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>67,96; 78,36</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>12,53; 60,05</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>46,17; 55,81</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>55,6; 63,01</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>42,72; 53,07</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>74,84; 84,04</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>55,52; 63,27</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>42,72; 53,07</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>56,43; 62,45</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>46,0; 52,96</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>73,16; 79,94</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>21,06; 60,14</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>46,0; 52,96</t>
         </is>
       </c>
     </row>
@@ -1073,47 +1073,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>62,17%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>52,57%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>74,6%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>61,9%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>52,57%</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>62,71%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>49,01%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>77,66%</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>62,9%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>49,01%</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>62,44%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>50,71%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>76,19%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>62,38%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>50,71%</t>
         </is>
       </c>
     </row>
@@ -1126,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>57,07; 66,92</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>47,07; 57,5</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>69,16; 79,39</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>56,55; 66,83</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>47,07; 57,5</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>58,44; 66,88</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>43,85; 54,06</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>73,11; 81,93</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>58,25; 67,27</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>43,85; 54,06</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>59,08; 65,44</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>47,01; 54,33</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>72,85; 79,44</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>58,97; 65,56</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>47,01; 54,33</t>
         </is>
       </c>
     </row>
@@ -1183,47 +1183,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>64,25%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>50,62%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>62,62%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>64,04%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>50,62%</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>62,28%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>49,39%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>68,82%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>79,12%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>49,39%</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>63,19%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>50,0%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>65,95%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>74,37%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>50,0%</t>
         </is>
       </c>
     </row>
@@ -1236,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>59,38; 69,33</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>45,92; 55,02</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>56,28; 67,7</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>58,88; 69,23</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>45,92; 55,02</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>57,4; 66,38</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>43,96; 54,36</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>63,19; 73,82</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>60,58; 93,3</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>43,96; 54,36</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>59,5; 66,36</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>47,08; 53,22</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>61,89; 69,82</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>61,58; 90,43</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>47,08; 53,22</t>
         </is>
       </c>
     </row>
@@ -1293,47 +1293,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>72,87%</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>50,12%</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>69,23%</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>72,62%</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>50,12%</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>69,23%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>52,74%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>66,8%</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>68,96%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>52,74%</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
+          <t>70,67%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>51,65%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>67,73%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>70,41%</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>51,65%</t>
         </is>
       </c>
     </row>
@@ -1346,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>67,06; 78,52</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>45,27; 55,2</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>63,31; 74,47</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>66,71; 78,42</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>45,27; 55,2</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>64,74; 73,63</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>48,15; 57,61</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>61,55; 71,55</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>64,42; 73,4</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>48,15; 57,61</t>
-        </is>
-      </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
+          <t>66,91; 74,24</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>48,32; 54,98</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
           <t>63,79; 71,47</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>66,41; 73,87</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>48,32; 54,98</t>
         </is>
       </c>
     </row>
@@ -1403,47 +1403,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>58,87%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>49,96%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>69,47%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>50,85%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>49,96%</t>
-        </is>
-      </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
+          <t>59,23%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>48,96%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
           <t>74,11%</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>60,73%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>48,96%</t>
-        </is>
-      </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
+          <t>59,06%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>49,45%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
           <t>71,9%</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>55,94%</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>49,45%</t>
         </is>
       </c>
     </row>
@@ -1456,47 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>56,32; 61,27</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>47,98; 51,93</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>67,01; 71,97</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>34,17; 58,23</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>47,98; 51,93</t>
-        </is>
-      </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
+          <t>57,54; 61,16</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>46,87; 50,86</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
           <t>72,05; 76,24</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>55,23; 72,38</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>46,87; 50,86</t>
-        </is>
-      </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
+          <t>57,36; 60,65</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>47,9; 50,75</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
           <t>70,39; 73,63</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>46,32; 62,11</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>47,9; 50,75</t>
         </is>
       </c>
     </row>
@@ -1590,47 +1590,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -1660,47 +1660,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>95</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>115</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>99</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>114</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>194</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>104</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>229</t>
         </is>
       </c>
     </row>
@@ -1713,47 +1713,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>91904</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>72354</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>41924</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>85832</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>72354</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>115496</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>76854</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>53897</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>92325</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>76854</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>207400</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>149208</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>95820</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>178158</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>149208</t>
         </is>
       </c>
     </row>
@@ -1766,47 +1766,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>68549; 116368</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>61512; 83309</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>35846; 48067</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>61285; 112544</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>61512; 83309</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>97239; 137019</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>65891; 88305</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>45870; 59037</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>75270; 111223</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>65891; 88305</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>176651; 242714</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>133414; 163184</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>86603; 104449</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>147699; 212907</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>133414; 163184</t>
         </is>
       </c>
     </row>
@@ -1823,47 +1823,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>108</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>142</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>128</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>131</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>236</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>223</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>292</t>
         </is>
       </c>
     </row>
@@ -1876,47 +1876,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>146190</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>88793</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>55575</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>123567</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>88793</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>144816</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>102056</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>64280</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>120743</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>102056</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>291005</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>190849</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>119855</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>244310</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>190849</t>
         </is>
       </c>
     </row>
@@ -1929,47 +1929,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>124814; 167004</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>77303; 99983</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>47309; 63871</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>103602; 142126</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>77303; 99983</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>126707; 162012</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>89422; 115689</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>56557; 70141</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>61806; 163794</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>89422; 115689</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>263066; 318698</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>172000; 206791</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>107678; 129490</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>160818; 289431</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>172000; 206791</t>
         </is>
       </c>
     </row>
@@ -1986,47 +1986,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>214</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>192</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>193</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>286</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>241</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>286</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>195</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>478</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>388</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>455</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>478</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>388</t>
         </is>
       </c>
     </row>
@@ -2039,47 +2039,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>218292</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>127168</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>97545</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>179311</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>127168</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>211185</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>120724</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>97024</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>181229</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>120724</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>429477</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>247892</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>194569</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>360540</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>247892</t>
         </is>
       </c>
     </row>
@@ -2092,47 +2092,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>195965; 238776</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>113960; 141103</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>89680; 104509</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>159178; 198156</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>113960; 141103</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>194256; 227752</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>107105; 133677</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>89851; 102829</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>166206; 194534</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>107105; 133677</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>403856; 454092</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>228324; 263991</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>183644; 203841</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>336807; 381853</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>228324; 263991</t>
         </is>
       </c>
     </row>
@@ -2149,47 +2149,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>236</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>308</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>236</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>235</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>390</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>343</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>390</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>217</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>626</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>452</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>651</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>626</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>452</t>
         </is>
       </c>
     </row>
@@ -2202,47 +2202,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>252259</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>148771</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>111132</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>223565</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>148771</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>258828</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>132593</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>120820</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>237939</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>132593</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>511086</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>281364</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>231952</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>461504</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>281364</t>
         </is>
       </c>
     </row>
@@ -2255,47 +2255,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>231062; 272864</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>135566; 163853</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>102912; 118651</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>78199; 374831</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>135566; 163853</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>242680; 275007</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>116957; 145318</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>112898; 126764</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>222372; 253408</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>116957; 145318</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>483879; 535488</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>261000; 300522</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>221153; 241635</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>215850; 616232</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>261000; 300522</t>
         </is>
       </c>
     </row>
@@ -2312,47 +2312,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>289</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>248</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>184</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>353</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>367</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>353</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>192</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
+          <t>601</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>376</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>656</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>601</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>376</t>
         </is>
       </c>
     </row>
@@ -2365,47 +2365,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>226770</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>118305</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>96877</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>207780</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>118305</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>223824</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>120281</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>109200</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>199641</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>120281</t>
-        </is>
-      </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
+          <t>450594</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>238586</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
           <t>206076</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>407421</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>238586</t>
         </is>
       </c>
     </row>
@@ -2418,47 +2418,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>208153; 244099</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>105929; 129403</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>89812; 103088</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>189840; 224335</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>105929; 129403</t>
-        </is>
-      </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
+          <t>208566; 238708</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>107618; 132667</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
           <t>102791; 115194</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>184867; 213504</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>107618; 132667</t>
-        </is>
-      </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
+          <t>426337; 472264</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>221176; 255607</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
           <t>197025; 214865</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>385134; 428188</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>221176; 255607</t>
         </is>
       </c>
     </row>
@@ -2475,47 +2475,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>234</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>205</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>263</t>
-        </is>
-      </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
+          <t>295</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
           <t>294</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>295</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>218</t>
-        </is>
-      </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>481</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
           <t>528</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>481</t>
         </is>
       </c>
     </row>
@@ -2528,47 +2528,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>148201</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>87479</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
           <t>60219</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>132853</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>87479</t>
-        </is>
-      </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
+          <t>167402</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>88338</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
           <t>76918</t>
         </is>
       </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>357224</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>88338</t>
-        </is>
-      </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
+          <t>315604</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>175816</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
           <t>137138</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>490077</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>175816</t>
         </is>
       </c>
     </row>
@@ -2581,47 +2581,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
+          <t>136977; 159910</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>79356; 95088</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
           <t>54128; 65112</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>122139; 143615</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>79356; 95088</t>
-        </is>
-      </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
+          <t>154273; 178415</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>78618; 97227</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
           <t>70622; 82503</t>
         </is>
       </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>273507; 421262</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>78618; 97227</t>
-        </is>
-      </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
+          <t>297187; 331409</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>165577; 187158</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
           <t>128684; 145177</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>405812; 595871</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>165577; 187158</t>
         </is>
       </c>
     </row>
@@ -2638,47 +2638,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
           <t>209</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>167</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>212</t>
-        </is>
-      </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
+          <t>297</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
           <t>328</t>
         </is>
       </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>297</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>241</t>
-        </is>
-      </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
+          <t>464</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>453</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
           <t>537</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>464</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>453</t>
         </is>
       </c>
     </row>
@@ -2691,47 +2691,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
+          <t>119183</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>67975</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
           <t>55246</t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>108701</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>67975</t>
-        </is>
-      </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
+          <t>173957</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>100435</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
           <t>85454</t>
         </is>
       </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>157558</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>100435</t>
-        </is>
-      </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
+          <t>293139</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>168410</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
           <t>140701</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>266258</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>168410</t>
         </is>
       </c>
     </row>
@@ -2744,47 +2744,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
+          <t>109665; 128414</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>61403; 74868</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
           <t>50525; 59429</t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>99860; 117384</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>61403; 74868</t>
-        </is>
-      </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
+          <t>162655; 184994</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>91690; 109708</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
           <t>78745; 91532</t>
         </is>
       </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>147188; 167690</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>91690; 109708</t>
-        </is>
-      </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
+          <t>277553; 307946</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>157560; 179276</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
           <t>132524; 148469</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>251125; 279347</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>157560; 179276</t>
         </is>
       </c>
     </row>
@@ -2801,47 +2801,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
+          <t>1180</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>1344</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
           <t>1457</t>
         </is>
       </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>1180</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>1344</t>
-        </is>
-      </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
+          <t>1816</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>1327</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
           <t>1800</t>
         </is>
       </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>1816</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>1327</t>
-        </is>
-      </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
+          <t>2996</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>2671</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
           <t>3257</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>2996</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>2671</t>
         </is>
       </c>
     </row>
@@ -2854,47 +2854,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
+          <t>1202798</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>710843</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
           <t>518519</t>
         </is>
       </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>1061610</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>710843</t>
-        </is>
-      </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
+          <t>1295507</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>741282</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
           <t>607594</t>
         </is>
       </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>1346659</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>741282</t>
-        </is>
-      </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
+          <t>2498305</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>1452126</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
           <t>1126112</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>2408268</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>1452126</t>
         </is>
       </c>
     </row>
@@ -2907,47 +2907,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
+          <t>1150650; 1251878</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>682647; 738825</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
           <t>500129; 537177</t>
         </is>
       </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>713422; 1215756</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>682647; 738825</t>
-        </is>
-      </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
+          <t>1258592; 1337762</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>709596; 770015</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
           <t>590662; 625020</t>
         </is>
       </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>1224636; 1605038</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>709596; 770015</t>
-        </is>
-      </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
+          <t>2426375; 2565678</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>1406688; 1490508</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
           <t>1102369; 1153235</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>1994425; 2673876</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>1406688; 1490508</t>
         </is>
       </c>
     </row>
